--- a/配置文档/游戏其他配置/阵营相关.xlsx
+++ b/配置文档/游戏其他配置/阵营相关.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="1">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
   <si>
     <t>该表用于模板，创建新配置表就复制这个
 两个阵营间无关系则相互无视
@@ -254,12 +254,18 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -269,6 +275,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -356,6 +368,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -392,6 +407,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -401,6 +419,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -425,6 +446,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -449,21 +473,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -483,6 +507,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -1144,11 +1177,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1277,12 +1313,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1555,318 +1592,318 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="90" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" ht="90" customHeight="1" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A5" s="5">
+    <row r="5" s="6" customFormat="1" ht="77.25" spans="1:9">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="str">
+      <c r="H5" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_301B396F232A4E7BAC3B61BF8472349F",1)</f>
         <v>=DISPIMG("ID_301B396F232A4E7BAC3B61BF8472349F",1)</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A6" s="5">
+    <row r="6" s="6" customFormat="1" ht="77.25" spans="1:9">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_E863ABF027B040BAAA8FD177E8E70A91",1)</f>
         <v>=DISPIMG("ID_E863ABF027B040BAAA8FD177E8E70A91",1)</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A7" s="5">
+    <row r="7" s="6" customFormat="1" ht="77.25" spans="1:9">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_A73D99CDB0334013B6FAED575598EE44",1)</f>
         <v>=DISPIMG("ID_A73D99CDB0334013B6FAED575598EE44",1)</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="116.4" spans="1:9">
-      <c r="A8" s="5">
+    <row r="8" s="6" customFormat="1" ht="116.4" spans="1:9">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_7A9FC8C37AC5440E955BC742964533F0",1)</f>
         <v>=DISPIMG("ID_7A9FC8C37AC5440E955BC742964533F0",1)</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="14.25"/>
-    <row r="10" s="5" customFormat="1" ht="14.25"/>
-    <row r="11" s="5" customFormat="1" ht="14.25"/>
-    <row r="12" s="5" customFormat="1" ht="14.25"/>
-    <row r="13" s="5" customFormat="1" ht="14.25"/>
-    <row r="14" s="5" customFormat="1" ht="14.25"/>
-    <row r="15" s="5" customFormat="1" ht="14.25"/>
-    <row r="16" s="5" customFormat="1" ht="14.25"/>
+    <row r="9" s="6" customFormat="1" ht="14.25"/>
+    <row r="10" s="6" customFormat="1" ht="14.25"/>
+    <row r="11" s="6" customFormat="1" ht="14.25"/>
+    <row r="12" s="6" customFormat="1" ht="14.25"/>
+    <row r="13" s="6" customFormat="1" ht="14.25"/>
+    <row r="14" s="6" customFormat="1" ht="14.25"/>
+    <row r="15" s="6" customFormat="1" ht="14.25"/>
+    <row r="16" s="6" customFormat="1" ht="14.25"/>
     <row r="18" spans="2:8">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" ht="14.25" spans="2:8">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" ht="14.25" spans="2:8">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" ht="14.25" spans="2:8">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" ht="14.25" spans="2:8">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" ht="14.25" spans="2:8">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" ht="14.25" spans="2:8">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" ht="14.25" spans="2:8">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" ht="14.25" spans="2:8">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1885,20 +1922,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1911,8 +1949,11 @@
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1920,27 +1961,33 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1951,80 +1998,96 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2032,204 +2095,264 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2237,102 +2360,139 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/游戏其他配置/阵营相关.xlsx
+++ b/配置文档/游戏其他配置/阵营相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24315" windowHeight="8910"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_CampBase_阵营基础数据" sheetId="3" r:id="rId1"/>
@@ -1177,14 +1177,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1577,8 +1574,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1592,318 +1589,318 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="90" customHeight="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="90" customHeight="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A5" s="6">
+    <row r="5" s="5" customFormat="1" ht="77.25" spans="1:9">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="14" t="str">
+      <c r="H5" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_301B396F232A4E7BAC3B61BF8472349F",1)</f>
         <v>=DISPIMG("ID_301B396F232A4E7BAC3B61BF8472349F",1)</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A6" s="6">
+    <row r="6" s="5" customFormat="1" ht="77.25" spans="1:9">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_E863ABF027B040BAAA8FD177E8E70A91",1)</f>
         <v>=DISPIMG("ID_E863ABF027B040BAAA8FD177E8E70A91",1)</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A7" s="6">
+    <row r="7" s="5" customFormat="1" ht="77.25" spans="1:9">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="14" t="str">
+      <c r="H7" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_A73D99CDB0334013B6FAED575598EE44",1)</f>
         <v>=DISPIMG("ID_A73D99CDB0334013B6FAED575598EE44",1)</v>
       </c>
-      <c r="I7" s="6" t="b">
+      <c r="I7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="116.4" spans="1:9">
-      <c r="A8" s="6">
+    <row r="8" s="5" customFormat="1" ht="116.4" spans="1:9">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_7A9FC8C37AC5440E955BC742964533F0",1)</f>
         <v>=DISPIMG("ID_7A9FC8C37AC5440E955BC742964533F0",1)</v>
       </c>
-      <c r="I8" s="6" t="b">
+      <c r="I8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="14.25"/>
-    <row r="10" s="6" customFormat="1" ht="14.25"/>
-    <row r="11" s="6" customFormat="1" ht="14.25"/>
-    <row r="12" s="6" customFormat="1" ht="14.25"/>
-    <row r="13" s="6" customFormat="1" ht="14.25"/>
-    <row r="14" s="6" customFormat="1" ht="14.25"/>
-    <row r="15" s="6" customFormat="1" ht="14.25"/>
-    <row r="16" s="6" customFormat="1" ht="14.25"/>
+    <row r="9" s="5" customFormat="1" ht="14.25"/>
+    <row r="10" s="5" customFormat="1" ht="14.25"/>
+    <row r="11" s="5" customFormat="1" ht="14.25"/>
+    <row r="12" s="5" customFormat="1" ht="14.25"/>
+    <row r="13" s="5" customFormat="1" ht="14.25"/>
+    <row r="14" s="5" customFormat="1" ht="14.25"/>
+    <row r="15" s="5" customFormat="1" ht="14.25"/>
+    <row r="16" s="5" customFormat="1" ht="14.25"/>
     <row r="18" spans="2:8">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" ht="14.25" spans="2:8">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="14.25" spans="2:8">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" ht="14.25" spans="2:8">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" ht="14.25" spans="2:8">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" ht="14.25" spans="2:8">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" ht="14.25" spans="2:8">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" ht="14.25" spans="2:8">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" ht="14.25" spans="2:8">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2479,19 +2476,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>119</v>
       </c>
     </row>

--- a/配置文档/游戏其他配置/阵营相关.xlsx
+++ b/配置文档/游戏其他配置/阵营相关.xlsx
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/配置文档/游戏其他配置/阵营相关.xlsx
+++ b/配置文档/游戏其他配置/阵营相关.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -137,6 +137,31 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_D8F15F0480BB44B2B9E04B6AE5A1F97A" descr="结算图标背景"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8440420" y="1768475"/>
+          <a:ext cx="381000" cy="379095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -149,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>该表用于模板，创建新配置表就复制这个
 两个阵营间无关系则相互无视
@@ -165,20 +190,6 @@
     <t>阵营描述</t>
   </si>
   <si>
-    <t>默认盟友阵营列表
-不会攻击盟友</t>
-  </si>
-  <si>
-    <t>默认中立阵营列表
-不会主动攻击中立
-攻击了就变成敌对阵营</t>
-  </si>
-  <si>
-    <t>默认敌对阵营列表
-主动攻击敌对阵营
-有攻击先后顺序</t>
-  </si>
-  <si>
     <t>阵营标识图片</t>
   </si>
   <si>
@@ -200,15 +211,6 @@
     <t>CampDes</t>
   </si>
   <si>
-    <t>AllyList</t>
-  </si>
-  <si>
-    <t>NeutralList</t>
-  </si>
-  <si>
-    <t>HostileList</t>
-  </si>
-  <si>
     <t>CampPng</t>
   </si>
   <si>
@@ -224,115 +226,115 @@
     <t>STR</t>
   </si>
   <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>中立-自然</t>
+  </si>
+  <si>
+    <t>失落机械</t>
+  </si>
+  <si>
+    <t>辉煌神殿</t>
+  </si>
+  <si>
+    <t>拉伦凯斯</t>
+  </si>
+  <si>
+    <t>坠落繁星</t>
+  </si>
+  <si>
+    <t>数据类型编号</t>
+  </si>
+  <si>
+    <t>数据类型名称</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>数据类型描述</t>
+  </si>
+  <si>
+    <t>数据类型示例</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
+  </si>
+  <si>
+    <t>True       False</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
+  </si>
+  <si>
+    <t>11112      -21232</t>
+  </si>
+  <si>
+    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
+  </si>
+  <si>
+    <t>1212312321</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
+  </si>
+  <si>
+    <t>52122122111111</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
+  </si>
+  <si>
+    <t>554.1233  622125.1231</t>
+  </si>
+  <si>
+    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>&lt;BOOL&gt;</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
+  </si>
+  <si>
+    <t>True|True|False</t>
+  </si>
+  <si>
+    <t>&lt;SHORT&gt;</t>
+  </si>
+  <si>
+    <t>短整数列表，用于保存一个由短整数组成的列表</t>
+  </si>
+  <si>
+    <t>123|121|434|-121</t>
+  </si>
+  <si>
     <t>&lt;INT&gt;</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>失落机械</t>
-  </si>
-  <si>
-    <t>#BASEVALUE</t>
-  </si>
-  <si>
-    <t>辉煌神殿</t>
-  </si>
-  <si>
-    <t>拉伦凯斯</t>
-  </si>
-  <si>
-    <t>坠落繁星</t>
-  </si>
-  <si>
-    <t>数据类型编号</t>
-  </si>
-  <si>
-    <t>数据类型名称</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>数据类型描述</t>
-  </si>
-  <si>
-    <t>数据类型示例</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
-  </si>
-  <si>
-    <t>True       False</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
-  </si>
-  <si>
-    <t>11112      -21232</t>
-  </si>
-  <si>
-    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
-  </si>
-  <si>
-    <t>1212312321</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
-  </si>
-  <si>
-    <t>52122122111111</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
-  </si>
-  <si>
-    <t>554.1233  622125.1231</t>
-  </si>
-  <si>
-    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>&lt;BOOL&gt;</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
-  </si>
-  <si>
-    <t>True|True|False</t>
-  </si>
-  <si>
-    <t>&lt;SHORT&gt;</t>
-  </si>
-  <si>
-    <t>短整数列表，用于保存一个由短整数组成的列表</t>
-  </si>
-  <si>
-    <t>123|121|434|-121</t>
   </si>
   <si>
     <t>整数列表，用于保存一个由整数组成的列表</t>
@@ -1177,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,9 +1204,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,9 +1211,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1291,6 +1287,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1572,24 +1575,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="22.6083333333333" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="4" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="90" customHeight="1" spans="1:9">
+    <row r="1" s="3" customFormat="1" ht="90" customHeight="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1602,218 +1603,163 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10">
-        <v>2</v>
-      </c>
-      <c r="G2" s="10">
-        <v>2</v>
-      </c>
-      <c r="H2" s="10">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="77.25" spans="1:9">
+    </row>
+    <row r="5" s="5" customFormat="1" ht="112.65" spans="1:6">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f>_xlfn.DISPIMG("ID_D8F15F0480BB44B2B9E04B6AE5A1F97A",1)</f>
+        <v>=DISPIMG("ID_D8F15F0480BB44B2B9E04B6AE5A1F97A",1)</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="77.25" spans="1:6">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="13" t="str">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_301B396F232A4E7BAC3B61BF8472349F",1)</f>
         <v>=DISPIMG("ID_301B396F232A4E7BAC3B61BF8472349F",1)</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A6" s="5">
+    <row r="7" s="5" customFormat="1" ht="77.25" spans="1:6">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="13" t="str">
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_E863ABF027B040BAAA8FD177E8E70A91",1)</f>
         <v>=DISPIMG("ID_E863ABF027B040BAAA8FD177E8E70A91",1)</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="F7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="77.25" spans="1:9">
-      <c r="A7" s="5">
+    <row r="8" s="5" customFormat="1" ht="77.25" spans="1:6">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="13" t="str">
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_A73D99CDB0334013B6FAED575598EE44",1)</f>
         <v>=DISPIMG("ID_A73D99CDB0334013B6FAED575598EE44",1)</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="F8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="116.4" spans="1:9">
-      <c r="A8" s="5">
+    <row r="9" s="5" customFormat="1" ht="79.2" spans="1:6">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="5" t="str">
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_7A9FC8C37AC5440E955BC742964533F0",1)</f>
         <v>=DISPIMG("ID_7A9FC8C37AC5440E955BC742964533F0",1)</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="14.25"/>
     <row r="10" s="5" customFormat="1" ht="14.25"/>
     <row r="11" s="5" customFormat="1" ht="14.25"/>
     <row r="12" s="5" customFormat="1" ht="14.25"/>
@@ -1821,93 +1767,66 @@
     <row r="14" s="5" customFormat="1" ht="14.25"/>
     <row r="15" s="5" customFormat="1" ht="14.25"/>
     <row r="16" s="5" customFormat="1" ht="14.25"/>
-    <row r="18" spans="2:8">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" ht="14.25" spans="2:8">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:8">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" ht="14.25" spans="2:8">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" ht="14.25" spans="2:8">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:8">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" ht="14.25" spans="2:8">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" ht="14.25" spans="2:8">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" ht="14.25" spans="2:8">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+    <row r="18" spans="2:5">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:5">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:5">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:5">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:5">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:5">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:5">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:5">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" ht="14.25" spans="2:5">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
       <formula1>[1]数据类型!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1935,19 +1854,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1955,16 +1874,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1972,16 +1891,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1989,16 +1908,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2006,16 +1925,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2023,16 +1942,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2040,14 +1959,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2055,16 +1974,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2072,16 +1991,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2089,16 +2008,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2106,16 +2025,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2123,16 +2042,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2140,13 +2059,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2154,10 +2073,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2165,10 +2084,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2176,10 +2095,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2187,10 +2106,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2198,10 +2117,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2209,10 +2128,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2220,10 +2139,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2231,10 +2150,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2242,10 +2161,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2253,10 +2172,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2264,10 +2183,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2275,10 +2194,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2286,16 +2205,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2303,16 +2222,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2320,16 +2239,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2337,16 +2256,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2354,13 +2273,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2368,16 +2287,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2385,16 +2304,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2402,16 +2321,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2419,16 +2338,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2436,16 +2355,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2453,14 +2372,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2468,11 +2387,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2480,16 +2399,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
